--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/BC/20/seed4/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/BC/20/seed4/result_data_KNN.xlsx
@@ -468,7 +468,7 @@
         <v>3.8</v>
       </c>
       <c r="C2" t="n">
-        <v>-13.818</v>
+        <v>-12.834</v>
       </c>
       <c r="D2" t="n">
         <v>-8.220000000000001</v>
@@ -485,7 +485,7 @@
         <v>4.54</v>
       </c>
       <c r="C3" t="n">
-        <v>-12.922</v>
+        <v>-12.482</v>
       </c>
       <c r="D3" t="n">
         <v>-6.85</v>
@@ -519,7 +519,7 @@
         <v>4.35</v>
       </c>
       <c r="C5" t="n">
-        <v>-12.41</v>
+        <v>-12.18</v>
       </c>
       <c r="D5" t="n">
         <v>-6.27</v>
@@ -584,7 +584,7 @@
         <v>-19.24</v>
       </c>
       <c r="B9" t="n">
-        <v>6.914</v>
+        <v>6.703</v>
       </c>
       <c r="C9" t="n">
         <v>-13.02</v>
@@ -621,7 +621,7 @@
         <v>6.01</v>
       </c>
       <c r="C11" t="n">
-        <v>-13.518</v>
+        <v>-12.917</v>
       </c>
       <c r="D11" t="n">
         <v>-8.01</v>
@@ -638,7 +638,7 @@
         <v>5.38</v>
       </c>
       <c r="C12" t="n">
-        <v>-13.676</v>
+        <v>-12.628</v>
       </c>
       <c r="D12" t="n">
         <v>-10.06</v>
@@ -652,7 +652,7 @@
         <v>-21.95</v>
       </c>
       <c r="B13" t="n">
-        <v>6.374</v>
+        <v>6.308000000000001</v>
       </c>
       <c r="C13" t="n">
         <v>-13.63</v>
@@ -703,7 +703,7 @@
         <v>-20.57</v>
       </c>
       <c r="B16" t="n">
-        <v>6.036</v>
+        <v>5.639</v>
       </c>
       <c r="C16" t="n">
         <v>-9.779999999999999</v>
@@ -737,7 +737,7 @@
         <v>-23.05</v>
       </c>
       <c r="B18" t="n">
-        <v>5.624000000000001</v>
+        <v>5.91</v>
       </c>
       <c r="C18" t="n">
         <v>-15.19</v>
@@ -771,7 +771,7 @@
         <v>-22.69</v>
       </c>
       <c r="B20" t="n">
-        <v>5.714</v>
+        <v>6.308000000000001</v>
       </c>
       <c r="C20" t="n">
         <v>-14.65</v>
@@ -791,7 +791,7 @@
         <v>7.49</v>
       </c>
       <c r="C21" t="n">
-        <v>-13.39</v>
+        <v>-13.12</v>
       </c>
       <c r="D21" t="n">
         <v>-8.890000000000001</v>
